--- a/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
+++ b/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>21.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>0.76</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -525,7 +545,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,15 +566,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -576,15 +606,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>27.93</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.04</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0969</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
       </c>
     </row>
@@ -594,26 +634,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003503</t>
+          <t>009707</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰鑫瑞灵活配置混合C</t>
+          <t>工银瑞信新兴制造混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.93</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -622,26 +672,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006689</t>
+          <t>003503</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>方正富邦信泓灵活配置混合A</t>
+          <t>金鹰鑫瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>86.41</t>
+          <t>3.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>27.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -650,26 +710,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008182</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>方正富邦信泓灵活配置混合C</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.41</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.50</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>9</v>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -678,26 +748,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000590</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安新活力灵活配置混合</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>20.15</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -706,26 +786,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>009708</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>工银瑞信新兴制造混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>1.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>68.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -734,26 +824,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>009500</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>国寿安保高股息混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
+          <t>80.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -762,26 +862,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009707</t>
+          <t>000590</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合A</t>
+          <t>华安新活力灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -790,26 +900,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009708</t>
+          <t>006689</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信新兴制造混合C</t>
+          <t>方正富邦信泓灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>68.13</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.62</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>8</v>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -818,26 +938,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>008182</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>方正富邦信泓灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>80.51</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.18</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>86.41</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -856,15 +986,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>80.51</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>3.18</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
+++ b/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1011,4 +1012,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>22.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
+++ b/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1256</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002561</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>东吴安鑫量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>29.22</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
+++ b/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1619,4 +1620,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
+++ b/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1628,7 +1629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1639,17 +1640,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1659,14 +1680,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.55</v>
+          <t>001358</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>39.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1675,14 +1718,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.15</v>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2412</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1691,14 +1756,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="5">
@@ -1707,13 +1878,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
+++ b/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1799,7 +1800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1810,17 +1811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1830,14 +1851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>3</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.51</v>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3675</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1846,14 +1889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.55</v>
+          <t>519616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1862,14 +1927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.15</v>
+          <t>519618</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合I</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1878,14 +1965,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.44</v>
+          <t>003805</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1894,13 +2003,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>519617</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银河君信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>24.42</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003806</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安新恒利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009387</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009388</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实稳福混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>34.71</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
+++ b/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2160,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2171,17 +2172,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2191,14 +2212,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3596</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -2207,14 +2302,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4">
@@ -2223,14 +2318,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="5">
@@ -2239,14 +2334,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.15</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
@@ -2255,14 +2350,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -2271,13 +2366,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.05</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
+++ b/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>0.15</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -600,6 +617,554 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>483003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银精选平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方标普中国A股大盘红利低波50ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011376</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华宝安享混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>20.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0307</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>55.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +1258,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1053,7 +1618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1583,7 +2148,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1829,7 +2394,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2303,7 +2868,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
+++ b/数据整理/stocks/A股/深证主板/001965-招商公路.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1.4</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.49</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.55</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.15</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.44</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>1</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -616,7 +633,233 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003900</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000893</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银创新动力股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5344</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011376</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华宝安享混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>24.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1164,7 +1407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1258,7 +1501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1618,7 +1861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1788,7 +2031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2148,7 +2391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2394,7 +2637,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2866,98 +3109,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H2"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>003900</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银施罗德瑞鑫定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>21.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0533</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>